--- a/server/templates/excel/String-Combiner-box-Inspection.xlsx
+++ b/server/templates/excel/String-Combiner-box-Inspection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9840276-D5EB-429B-8A38-2626DFB65312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC073C54-4875-41D9-8741-84B05A44348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>PM-003</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
   </si>
 </sst>
 </file>
@@ -932,6 +938,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,24 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1377,8 +1383,8 @@
   </sheetPr>
   <dimension ref="A1:Y289"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -1403,15 +1409,15 @@
       <c r="C1"/>
       <c r="D1" s="70"/>
       <c r="E1" s="68"/>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:14" ht="14.1" customHeight="1" thickTop="1">
       <c r="A2" s="29" t="s">
@@ -1434,22 +1440,22 @@
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="1:14" ht="14.1" customHeight="1" thickTop="1">
       <c r="A4" s="36"/>
@@ -1472,24 +1478,24 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A5" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114" t="s">
+      <c r="A5" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:14" ht="40.15" customHeight="1" thickTop="1">
       <c r="A6" s="65"/>
@@ -1533,11 +1539,11 @@
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1">
       <c r="A8" s="46"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="16"/>
       <c r="F8" s="74"/>
       <c r="G8" s="18"/>
@@ -1582,15 +1588,15 @@
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
       <c r="J11" s="83" t="s">
         <v>22</v>
       </c>
@@ -1602,15 +1608,15 @@
     <row r="12" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="81"/>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="96"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="22"/>
       <c r="K12" s="20"/>
       <c r="L12" s="4"/>
@@ -1620,15 +1626,15 @@
       <c r="B13" s="24">
         <v>1</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
         <v>36</v>
@@ -1640,15 +1646,15 @@
       <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
         <v>36</v>
@@ -1661,15 +1667,15 @@
       <c r="B15" s="24">
         <v>3</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
         <v>36</v>
@@ -1681,15 +1687,15 @@
       <c r="B16" s="24">
         <v>4</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="96"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15" t="s">
         <v>36</v>
@@ -1702,15 +1708,15 @@
       <c r="B17" s="24">
         <v>5</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15" t="s">
         <v>36</v>
@@ -1723,15 +1729,15 @@
       <c r="B18" s="24">
         <v>6</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15" t="s">
         <v>36</v>
@@ -1744,15 +1750,15 @@
       <c r="B19" s="24">
         <v>7</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15" t="s">
         <v>36</v>
@@ -1764,15 +1770,15 @@
       <c r="B20" s="24">
         <v>8</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
         <v>36</v>
@@ -1784,15 +1790,15 @@
       <c r="B21" s="24">
         <v>9</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="96"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="s">
         <v>36</v>
@@ -1804,15 +1810,15 @@
       <c r="B22" s="24">
         <v>10</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
         <v>36</v>
@@ -1824,15 +1830,15 @@
       <c r="B23" s="24">
         <v>11</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="96"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
         <v>36</v>
@@ -1959,13 +1965,13 @@
     </row>
     <row r="33" spans="1:12" ht="21.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="26"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19" t="s">
@@ -2613,11 +2619,6 @@
     <row r="289" ht="14.65" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B8:D8"/>
@@ -2634,6 +2635,11 @@
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="6">
@@ -2659,15 +2665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2691,6 +2688,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3001,14 +3007,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3022,6 +3020,14 @@
     <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
